--- a/Code/Results/Cases/Case_6_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_6/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>29.54423019870969</v>
       </c>
       <c r="C2">
-        <v>16.90680230781996</v>
+        <v>16.90680230782026</v>
       </c>
       <c r="D2">
-        <v>5.305252454228997</v>
+        <v>5.305252454228839</v>
       </c>
       <c r="E2">
-        <v>5.532182565928587</v>
+        <v>5.532182565928834</v>
       </c>
       <c r="F2">
-        <v>41.65789379347101</v>
+        <v>41.65789379347083</v>
       </c>
       <c r="G2">
-        <v>2.072464356262614</v>
+        <v>2.072464356262476</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.771058323601389</v>
+        <v>7.771058323601387</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.67690909496363</v>
+        <v>13.67690909496347</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>27.59397676590481</v>
       </c>
       <c r="C3">
-        <v>15.69332837251184</v>
+        <v>15.69332837251166</v>
       </c>
       <c r="D3">
-        <v>5.350356374268681</v>
+        <v>5.350356374268513</v>
       </c>
       <c r="E3">
-        <v>5.566136204442461</v>
+        <v>5.566136204442392</v>
       </c>
       <c r="F3">
-        <v>39.62154078720435</v>
+        <v>39.62154078720444</v>
       </c>
       <c r="G3">
-        <v>2.086363872075362</v>
+        <v>2.086363872075367</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.490450320082568</v>
+        <v>7.4904503200826</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.88750481879492</v>
+        <v>13.88750481879495</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.35656817480885</v>
+        <v>26.35656817480889</v>
       </c>
       <c r="C4">
-        <v>14.91356608605039</v>
+        <v>14.9135660860503</v>
       </c>
       <c r="D4">
-        <v>5.382494383512434</v>
+        <v>5.382494383512655</v>
       </c>
       <c r="E4">
-        <v>5.588557843137849</v>
+        <v>5.588557843137977</v>
       </c>
       <c r="F4">
-        <v>38.37377863542834</v>
+        <v>38.37377863542839</v>
       </c>
       <c r="G4">
-        <v>2.095044626910386</v>
+        <v>2.095044626910248</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.32036126253717</v>
+        <v>7.320361262537261</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.02176749881042</v>
+        <v>14.02176749881045</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.84236127027178</v>
+        <v>25.84236127027177</v>
       </c>
       <c r="C5">
-        <v>14.58686519783187</v>
+        <v>14.58686519783182</v>
       </c>
       <c r="D5">
-        <v>5.396620658379486</v>
+        <v>5.396620658379529</v>
       </c>
       <c r="E5">
-        <v>5.598082165157256</v>
+        <v>5.59808216515719</v>
       </c>
       <c r="F5">
-        <v>37.86623605756458</v>
+        <v>37.86623605756461</v>
       </c>
       <c r="G5">
-        <v>2.098623644081955</v>
+        <v>2.098623644081953</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.251642892753186</v>
+        <v>7.251642892753164</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.07768346510753</v>
+        <v>14.07768346510761</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.7563814766293</v>
+        <v>25.75638147662934</v>
       </c>
       <c r="C6">
-        <v>14.53207066608411</v>
+        <v>14.53207066608429</v>
       </c>
       <c r="D6">
-        <v>5.39902613925943</v>
+        <v>5.399026139259456</v>
       </c>
       <c r="E6">
-        <v>5.59968683856611</v>
+        <v>5.599686838566231</v>
       </c>
       <c r="F6">
-        <v>37.78202582844522</v>
+        <v>37.78202582844526</v>
       </c>
       <c r="G6">
-        <v>2.099220575566698</v>
+        <v>2.09922057556696</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.240269506070714</v>
+        <v>7.240269506070707</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.08703981229527</v>
+        <v>14.08703981229534</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.34967349162812</v>
+        <v>26.34967349162815</v>
       </c>
       <c r="C7">
-        <v>14.90919656381314</v>
+        <v>14.90919656381311</v>
       </c>
       <c r="D7">
-        <v>5.38268083439223</v>
+        <v>5.382680834392119</v>
       </c>
       <c r="E7">
-        <v>5.588684733581988</v>
+        <v>5.588684733581863</v>
       </c>
       <c r="F7">
-        <v>38.36692950656301</v>
+        <v>38.366929506563</v>
       </c>
       <c r="G7">
-        <v>2.095092720679916</v>
+        <v>2.095092720679921</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.319432036392111</v>
+        <v>7.31943203639214</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.02251678183836</v>
+        <v>14.02251678183831</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>28.88009180647881</v>
       </c>
       <c r="C8">
-        <v>16.49545650478513</v>
+        <v>16.49545650478517</v>
       </c>
       <c r="D8">
-        <v>5.319825838537697</v>
+        <v>5.319825838537611</v>
       </c>
       <c r="E8">
-        <v>5.543557642146914</v>
+        <v>5.543557642146972</v>
       </c>
       <c r="F8">
-        <v>40.95535838961518</v>
+        <v>40.95535838961506</v>
       </c>
       <c r="G8">
-        <v>2.077229522138845</v>
+        <v>2.077229522138712</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.673867313642462</v>
+        <v>7.673867313642506</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.74846486746324</v>
+        <v>13.74846486746314</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>33.78548293101633</v>
       </c>
       <c r="C9">
-        <v>19.34200989857632</v>
+        <v>19.34200989857628</v>
       </c>
       <c r="D9">
-        <v>5.23638386271688</v>
+        <v>5.23638386271708</v>
       </c>
       <c r="E9">
-        <v>5.468002724700754</v>
+        <v>5.468002724700813</v>
       </c>
       <c r="F9">
-        <v>46.046395455631</v>
+        <v>46.04639545563106</v>
       </c>
       <c r="G9">
-        <v>2.043119720831491</v>
+        <v>2.043119720831622</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.385364907934802</v>
+        <v>8.385364907934797</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.25288272980984</v>
+        <v>13.25288272980994</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.20372134512404</v>
+        <v>37.20372134512392</v>
       </c>
       <c r="C10">
-        <v>21.29005324376422</v>
+        <v>21.29005324376427</v>
       </c>
       <c r="D10">
-        <v>5.206764796856594</v>
+        <v>5.206764796856554</v>
       </c>
       <c r="E10">
-        <v>5.421139923231925</v>
+        <v>5.421139923231919</v>
       </c>
       <c r="F10">
-        <v>49.80130551062118</v>
+        <v>49.80130551062106</v>
       </c>
       <c r="G10">
         <v>2.018230211120028</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.918050781413569</v>
+        <v>8.918050781413541</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.91887368627699</v>
+        <v>12.91887368627701</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>38.71499493389361</v>
       </c>
       <c r="C11">
-        <v>22.14985906830251</v>
+        <v>22.14985906830256</v>
       </c>
       <c r="D11">
-        <v>5.202184887534862</v>
+        <v>5.202184887534914</v>
       </c>
       <c r="E11">
-        <v>5.401916547233295</v>
+        <v>5.401916547233351</v>
       </c>
       <c r="F11">
-        <v>51.51773784084664</v>
+        <v>51.51773784084669</v>
       </c>
       <c r="G11">
-        <v>2.006838937525585</v>
+        <v>2.006838937525597</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.162982972836119</v>
+        <v>9.16298297283611</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.77490120517149</v>
+        <v>12.77490120517156</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.28170286094137</v>
+        <v>39.28170286094135</v>
       </c>
       <c r="C12">
         <v>22.47212359938337</v>
       </c>
       <c r="D12">
-        <v>5.201932279941311</v>
+        <v>5.201932279941427</v>
       </c>
       <c r="E12">
-        <v>5.394961545377089</v>
+        <v>5.394961545377031</v>
       </c>
       <c r="F12">
-        <v>52.16961949794945</v>
+        <v>52.16961949794954</v>
       </c>
       <c r="G12">
-        <v>2.002504788593166</v>
+        <v>2.002504788593037</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.256180881260624</v>
+        <v>9.25618088126061</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.72169113337752</v>
+        <v>12.72169113337751</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>39.15988751166932</v>
+        <v>39.1598875116693</v>
       </c>
       <c r="C13">
-        <v>22.40285776506834</v>
+        <v>22.40285776506836</v>
       </c>
       <c r="D13">
-        <v>5.20191719911125</v>
+        <v>5.201917199111224</v>
       </c>
       <c r="E13">
-        <v>5.3964445750697</v>
+        <v>5.396444575069689</v>
       </c>
       <c r="F13">
         <v>52.02912613566271</v>
       </c>
       <c r="G13">
-        <v>2.003439327222743</v>
+        <v>2.00343932722274</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.236087634097025</v>
+        <v>9.236087634097014</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.7330896077035</v>
+        <v>12.73308960770353</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.76172559118424</v>
+        <v>38.76172559118425</v>
       </c>
       <c r="C14">
-        <v>22.17643565073683</v>
+        <v>22.17643565073691</v>
       </c>
       <c r="D14">
-        <v>5.202133130340731</v>
+        <v>5.202133130340875</v>
       </c>
       <c r="E14">
-        <v>5.401337701395496</v>
+        <v>5.401337701395562</v>
       </c>
       <c r="F14">
-        <v>51.57132530661359</v>
+        <v>51.57132530661364</v>
       </c>
       <c r="G14">
-        <v>2.006482843295595</v>
+        <v>2.006482843295336</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.17064092088007</v>
+        <v>9.170640920880082</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.77049626188098</v>
+        <v>12.77049626188094</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.51713677089417</v>
+        <v>38.51713677089409</v>
       </c>
       <c r="C15">
-        <v>22.03732772074253</v>
+        <v>22.03732772074244</v>
       </c>
       <c r="D15">
-        <v>5.202464935314381</v>
+        <v>5.202464935314395</v>
       </c>
       <c r="E15">
-        <v>5.404377911820679</v>
+        <v>5.404377911820671</v>
       </c>
       <c r="F15">
-        <v>51.29118296674405</v>
+        <v>51.291182966744</v>
       </c>
       <c r="G15">
-        <v>2.008344065327272</v>
+        <v>2.008344065327405</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.130613896710624</v>
+        <v>9.130613896710649</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.79358494751668</v>
+        <v>12.79358494751675</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.10413387171892</v>
+        <v>37.10413387171914</v>
       </c>
       <c r="C16">
-        <v>21.23337043203634</v>
+        <v>21.23337043203645</v>
       </c>
       <c r="D16">
-        <v>5.20725967669188</v>
+        <v>5.207259676691739</v>
       </c>
       <c r="E16">
-        <v>5.422440248043256</v>
+        <v>5.422440248043314</v>
       </c>
       <c r="F16">
-        <v>49.68935464198672</v>
+        <v>49.6893546419868</v>
       </c>
       <c r="G16">
-        <v>2.018972405332835</v>
+        <v>2.0189724053327</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.902101824482857</v>
+        <v>8.902101824482855</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.92845604874772</v>
+        <v>12.92845604874763</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.22656908362698</v>
+        <v>36.22656908362703</v>
       </c>
       <c r="C17">
-        <v>20.73372328846736</v>
+        <v>20.73372328846743</v>
       </c>
       <c r="D17">
-        <v>5.21261341032289</v>
+        <v>5.212613410322773</v>
       </c>
       <c r="E17">
-        <v>5.434072518137175</v>
+        <v>5.434072518137186</v>
       </c>
       <c r="F17">
-        <v>48.70923745156126</v>
+        <v>48.70923745156132</v>
       </c>
       <c r="G17">
-        <v>2.025467907605549</v>
+        <v>2.025467907605687</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.762626759854356</v>
+        <v>8.762626759854381</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.01334035328505</v>
+        <v>13.01334035328498</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.7176539282047</v>
+        <v>35.71765392820464</v>
       </c>
       <c r="C18">
-        <v>20.44382547784307</v>
+        <v>20.44382547784324</v>
       </c>
       <c r="D18">
-        <v>5.216515973951387</v>
+        <v>5.216515973951374</v>
       </c>
       <c r="E18">
-        <v>5.440958618005909</v>
+        <v>5.440958618005847</v>
       </c>
       <c r="F18">
-        <v>48.14622429852756</v>
+        <v>48.14622429852744</v>
       </c>
       <c r="G18">
-        <v>2.029198195026261</v>
+        <v>2.029198195026529</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.682643976456228</v>
+        <v>8.682643976456204</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.06290186604578</v>
+        <v>13.06290186604575</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.54460969991961</v>
+        <v>35.54460969991973</v>
       </c>
       <c r="C19">
-        <v>20.34522629586771</v>
+        <v>20.34522629586761</v>
       </c>
       <c r="D19">
-        <v>5.217973043776301</v>
+        <v>5.217973043776345</v>
       </c>
       <c r="E19">
-        <v>5.443323081715612</v>
+        <v>5.443323081715674</v>
       </c>
       <c r="F19">
-        <v>47.95570463580556</v>
+        <v>47.95570463580564</v>
       </c>
       <c r="G19">
         <v>2.030460512231457</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.6556026656597</v>
+        <v>8.655602665659726</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.07980500713047</v>
+        <v>13.07980500713048</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.32041354628138</v>
+        <v>36.3204135462814</v>
       </c>
       <c r="C20">
-        <v>20.7871686337775</v>
+        <v>20.78716863377745</v>
       </c>
       <c r="D20">
-        <v>5.211956927649518</v>
+        <v>5.211956927649617</v>
       </c>
       <c r="E20">
-        <v>5.432813853554939</v>
+        <v>5.43281385355469</v>
       </c>
       <c r="F20">
-        <v>48.81349330777956</v>
+        <v>48.81349330777959</v>
       </c>
       <c r="G20">
-        <v>2.0247771168469</v>
+        <v>2.024777116846906</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.777448905917415</v>
+        <v>8.777448905917375</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.0042268062942</v>
+        <v>13.00422680629421</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>38.87882047035897</v>
       </c>
       <c r="C21">
-        <v>22.2430274447936</v>
+        <v>22.24302744479363</v>
       </c>
       <c r="D21">
-        <v>5.202027712530401</v>
+        <v>5.202027712530374</v>
       </c>
       <c r="E21">
-        <v>5.399891455710993</v>
+        <v>5.399891455710985</v>
       </c>
       <c r="F21">
-        <v>51.7057337755415</v>
+        <v>51.70573377554135</v>
       </c>
       <c r="G21">
-        <v>2.005589539775468</v>
+        <v>2.005589539775456</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.189851322156709</v>
+        <v>9.189851322156713</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.75947198586552</v>
+        <v>12.75947198586555</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40.51880639746106</v>
+        <v>40.51880639746093</v>
       </c>
       <c r="C22">
-        <v>23.17541119807593</v>
+        <v>23.17541119807579</v>
       </c>
       <c r="D22">
-        <v>5.204294054375387</v>
+        <v>5.204294054375358</v>
       </c>
       <c r="E22">
-        <v>5.380280628267309</v>
+        <v>5.380280628267252</v>
       </c>
       <c r="F22">
-        <v>53.60762102973477</v>
+        <v>53.60762102973463</v>
       </c>
       <c r="G22">
-        <v>1.992923357174436</v>
+        <v>1.992923357174433</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.462046969944343</v>
+        <v>9.462046969944327</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.60724876386218</v>
+        <v>12.60724876386224</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.64617880989637</v>
+        <v>39.64617880989632</v>
       </c>
       <c r="C23">
-        <v>22.67935243685017</v>
+        <v>22.67935243685015</v>
       </c>
       <c r="D23">
-        <v>5.202207376824767</v>
+        <v>5.202207376824752</v>
       </c>
       <c r="E23">
-        <v>5.390563880565578</v>
+        <v>5.390563880565689</v>
       </c>
       <c r="F23">
         <v>52.59117563754725</v>
       </c>
       <c r="G23">
-        <v>1.999699089187563</v>
+        <v>1.999699089187566</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.316494070015926</v>
+        <v>9.316494070015894</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.68772000159936</v>
+        <v>12.68772000159944</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.27800019439865</v>
+        <v>36.27800019439875</v>
       </c>
       <c r="C24">
-        <v>20.76301426261212</v>
+        <v>20.76301426261228</v>
       </c>
       <c r="D24">
-        <v>5.212251169860173</v>
+        <v>5.212251169860229</v>
       </c>
       <c r="E24">
-        <v>5.43338227902754</v>
+        <v>5.433382279027554</v>
       </c>
       <c r="F24">
-        <v>48.76635782362354</v>
+        <v>48.76635782362363</v>
       </c>
       <c r="G24">
-        <v>2.025089435233841</v>
+        <v>2.025089435233709</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.770747185416253</v>
+        <v>8.770747185416248</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.00834468430995</v>
+        <v>13.00834468430986</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.48395851960905</v>
+        <v>32.48395851960911</v>
       </c>
       <c r="C25">
         <v>18.59853022779621</v>
       </c>
       <c r="D25">
-        <v>5.253996494145755</v>
+        <v>5.253996494145786</v>
       </c>
       <c r="E25">
-        <v>5.486987106032744</v>
+        <v>5.486987106032868</v>
       </c>
       <c r="F25">
-        <v>44.66761431794174</v>
+        <v>44.6676143179417</v>
       </c>
       <c r="G25">
-        <v>2.052285742551342</v>
+        <v>2.052285742551209</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.191204899897425</v>
+        <v>8.191204899897492</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.3820672903848</v>
+        <v>13.38206729038478</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.54423019870969</v>
+        <v>22.69961492748371</v>
       </c>
       <c r="C2">
-        <v>16.90680230782026</v>
+        <v>14.6928052768897</v>
       </c>
       <c r="D2">
-        <v>5.305252454228839</v>
+        <v>3.876524736579221</v>
       </c>
       <c r="E2">
-        <v>5.532182565928834</v>
+        <v>6.598819210724304</v>
       </c>
       <c r="F2">
-        <v>41.65789379347083</v>
+        <v>24.75867393134024</v>
       </c>
       <c r="G2">
-        <v>2.072464356262476</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>34.84758559899885</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.945420408839371</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.97078231802804</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.77941819886127</v>
       </c>
       <c r="L2">
-        <v>7.771058323601387</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.67690909496347</v>
+        <v>7.429540084764895</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>11.96827945473024</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.59397676590481</v>
+        <v>21.15577666323448</v>
       </c>
       <c r="C3">
-        <v>15.69332837251166</v>
+        <v>13.83375671883426</v>
       </c>
       <c r="D3">
-        <v>5.350356374268513</v>
+        <v>3.857289428132025</v>
       </c>
       <c r="E3">
-        <v>5.566136204442392</v>
+        <v>6.615604823349658</v>
       </c>
       <c r="F3">
-        <v>39.62154078720444</v>
+        <v>23.78630946086717</v>
       </c>
       <c r="G3">
-        <v>2.086363872075367</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>33.29410992806871</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.702895389459079</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.79036485601226</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.61288827108771</v>
       </c>
       <c r="L3">
-        <v>7.4904503200826</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.88750481879495</v>
+        <v>7.161939416967547</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.14264903116714</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.35656817480889</v>
+        <v>20.17776637724522</v>
       </c>
       <c r="C4">
-        <v>14.9135660860503</v>
+        <v>13.2822816907228</v>
       </c>
       <c r="D4">
-        <v>5.382494383512655</v>
+        <v>3.845294209687071</v>
       </c>
       <c r="E4">
-        <v>5.588557843137977</v>
+        <v>6.627785857368329</v>
       </c>
       <c r="F4">
-        <v>38.37377863542839</v>
+        <v>23.18489948959676</v>
       </c>
       <c r="G4">
-        <v>2.095044626910248</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>32.32631927276584</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.549856341826932</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.68408204619819</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.51830525691721</v>
       </c>
       <c r="L4">
-        <v>7.320361262537261</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.02176749881045</v>
+        <v>6.997111198111651</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.25196820026579</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.84236127027177</v>
+        <v>19.766098927773</v>
       </c>
       <c r="C5">
-        <v>14.58686519783182</v>
+        <v>13.05766692128299</v>
       </c>
       <c r="D5">
-        <v>5.396620658379529</v>
+        <v>3.841097855190516</v>
       </c>
       <c r="E5">
-        <v>5.59808216515719</v>
+        <v>6.632244708006669</v>
       </c>
       <c r="F5">
-        <v>37.86623605756461</v>
+        <v>22.92807164255763</v>
       </c>
       <c r="G5">
-        <v>2.098623644081953</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>31.90893508087978</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.48696617982354</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.63815260615907</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.47350460973485</v>
       </c>
       <c r="L5">
-        <v>7.251642892753164</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.07768346510761</v>
+        <v>6.930452989897523</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.29725186975415</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.75638147662934</v>
+        <v>19.68876427999026</v>
       </c>
       <c r="C6">
-        <v>14.53207066608429</v>
+        <v>13.02749896215259</v>
       </c>
       <c r="D6">
-        <v>5.399026139259456</v>
+        <v>3.841305942114451</v>
       </c>
       <c r="E6">
-        <v>5.599686838566231</v>
+        <v>6.631831388251694</v>
       </c>
       <c r="F6">
-        <v>37.78202582844526</v>
+        <v>22.87195587287839</v>
       </c>
       <c r="G6">
-        <v>2.09922057556696</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>31.81496933463499</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.47733247219005</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.62600385164671</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.45623159555171</v>
       </c>
       <c r="L6">
-        <v>7.240269506070707</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.08703981229534</v>
+        <v>6.920051815069497</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.30500453836802</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.34967349162815</v>
+        <v>20.1504485470938</v>
       </c>
       <c r="C7">
-        <v>14.90919656381311</v>
+        <v>13.29932593002476</v>
       </c>
       <c r="D7">
-        <v>5.382680834392119</v>
+        <v>3.847739173142923</v>
       </c>
       <c r="E7">
-        <v>5.588684733581863</v>
+        <v>6.624621210679066</v>
       </c>
       <c r="F7">
-        <v>38.366929506563</v>
+        <v>23.1452044726692</v>
       </c>
       <c r="G7">
-        <v>2.095092720679921</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>32.25476326153372</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.550904133898487</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.6709773504838</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.49059375054972</v>
       </c>
       <c r="L7">
-        <v>7.31943203639214</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.02251678183831</v>
+        <v>6.998005572369722</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.25319531287679</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.88009180647881</v>
+        <v>22.15277840776615</v>
       </c>
       <c r="C8">
-        <v>16.49545650478517</v>
+        <v>14.42638839773705</v>
       </c>
       <c r="D8">
-        <v>5.319825838537611</v>
+        <v>3.873347165641235</v>
       </c>
       <c r="E8">
-        <v>5.543557642146972</v>
+        <v>6.599961606196063</v>
       </c>
       <c r="F8">
-        <v>40.95535838961506</v>
+        <v>24.37868147583991</v>
       </c>
       <c r="G8">
-        <v>2.077229522138712</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>34.23232682833597</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.864203457514072</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.8914270648271</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.68489256814031</v>
       </c>
       <c r="L8">
-        <v>7.673867313642506</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.74846486746314</v>
+        <v>7.339685144902806</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.02911755619698</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.78548293101633</v>
+        <v>25.70807857023609</v>
       </c>
       <c r="C9">
-        <v>19.34200989857628</v>
+        <v>16.41299159030147</v>
       </c>
       <c r="D9">
-        <v>5.23638386271708</v>
+        <v>3.917419499133531</v>
       </c>
       <c r="E9">
-        <v>5.468002724700813</v>
+        <v>6.572702866884971</v>
       </c>
       <c r="F9">
-        <v>46.04639545563106</v>
+        <v>26.81102162698611</v>
       </c>
       <c r="G9">
-        <v>2.043119720831622</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>38.08984525755135</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.445764593410377</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.38096316295056</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.1768818455328</v>
       </c>
       <c r="L9">
-        <v>8.385364907934797</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.25288272980994</v>
+        <v>7.998804684249475</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>11.60526570266615</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.20372134512392</v>
+        <v>28.03523406815532</v>
       </c>
       <c r="C10">
-        <v>21.29005324376427</v>
+        <v>17.76479954606302</v>
       </c>
       <c r="D10">
-        <v>5.206764796856554</v>
+        <v>3.950258318175642</v>
       </c>
       <c r="E10">
-        <v>5.421139923231919</v>
+        <v>6.561155854209871</v>
       </c>
       <c r="F10">
-        <v>49.80130551062106</v>
+        <v>28.53943897109186</v>
       </c>
       <c r="G10">
-        <v>2.018230211120028</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>40.79607173697288</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.856372393355068</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.75606680984675</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.56687474662059</v>
       </c>
       <c r="L10">
-        <v>8.918050781413541</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.91887368627701</v>
+        <v>8.474578170330419</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.3043356618097</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.71499493389361</v>
+        <v>29.00960330465567</v>
       </c>
       <c r="C11">
-        <v>22.14985906830256</v>
+        <v>18.37935047894483</v>
       </c>
       <c r="D11">
-        <v>5.202184887534914</v>
+        <v>3.969596351101246</v>
       </c>
       <c r="E11">
-        <v>5.401916547233351</v>
+        <v>6.553036946572748</v>
       </c>
       <c r="F11">
-        <v>51.51773784084669</v>
+        <v>29.26690820884408</v>
       </c>
       <c r="G11">
-        <v>2.006838937525597</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>41.91880612057838</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.041535524531417</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.91291017931403</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.71260426983428</v>
       </c>
       <c r="L11">
-        <v>9.16298297283611</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.77490120517156</v>
+        <v>8.690543644533946</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>11.17227273413311</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.28170286094135</v>
+        <v>29.38453298838046</v>
       </c>
       <c r="C12">
-        <v>22.47212359938337</v>
+        <v>18.59505064884818</v>
       </c>
       <c r="D12">
-        <v>5.201932279941427</v>
+        <v>3.974477485952415</v>
       </c>
       <c r="E12">
-        <v>5.394961545377031</v>
+        <v>6.55308772123239</v>
       </c>
       <c r="F12">
-        <v>52.16961949794954</v>
+        <v>29.56665011119204</v>
       </c>
       <c r="G12">
-        <v>2.002504788593037</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>42.38655061980992</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.110303038372071</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.98288706549123</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.79145214479957</v>
       </c>
       <c r="L12">
-        <v>9.25618088126061</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.72169113337751</v>
+        <v>8.770636449134177</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>11.12112090738786</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>39.1598875116693</v>
+        <v>29.30693912895836</v>
       </c>
       <c r="C13">
-        <v>22.40285776506836</v>
+        <v>18.5461128000872</v>
       </c>
       <c r="D13">
-        <v>5.201917199111224</v>
+        <v>3.97293688432367</v>
       </c>
       <c r="E13">
-        <v>5.396444575069689</v>
+        <v>6.553618468582374</v>
       </c>
       <c r="F13">
-        <v>52.02912613566271</v>
+        <v>29.50728701790105</v>
       </c>
       <c r="G13">
-        <v>2.00343932722274</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>42.295038789458</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.095288035076966</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.96975834752552</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.77883406649429</v>
       </c>
       <c r="L13">
-        <v>9.236087634097014</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.73308960770353</v>
+        <v>8.75316320051941</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>11.13182137303074</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.76172559118425</v>
+        <v>29.04180759078928</v>
       </c>
       <c r="C14">
-        <v>22.17643565073691</v>
+        <v>18.3960370359793</v>
       </c>
       <c r="D14">
-        <v>5.202133130340875</v>
+        <v>3.96979034158258</v>
       </c>
       <c r="E14">
-        <v>5.401337701395562</v>
+        <v>6.553270865196276</v>
       </c>
       <c r="F14">
-        <v>51.57132530661364</v>
+        <v>29.29378955620186</v>
       </c>
       <c r="G14">
-        <v>2.006482843295336</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>41.96123795081459</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.04709939230125</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.91949452504102</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.72094806522665</v>
       </c>
       <c r="L14">
-        <v>9.170640920880082</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.77049626188094</v>
+        <v>8.697037513032093</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>11.16793170072325</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.51713677089409</v>
+        <v>28.87275810591652</v>
       </c>
       <c r="C15">
-        <v>22.03732772074244</v>
+        <v>18.30892897917083</v>
       </c>
       <c r="D15">
-        <v>5.202464935314395</v>
+        <v>3.968823491953685</v>
       </c>
       <c r="E15">
-        <v>5.404377911820671</v>
+        <v>6.552006272217661</v>
       </c>
       <c r="F15">
-        <v>51.291182966744</v>
+        <v>29.15258958004296</v>
       </c>
       <c r="G15">
-        <v>2.008344065327405</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>41.73820471859003</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.018060877183402</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.8848823789389</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.67691565030429</v>
       </c>
       <c r="L15">
-        <v>9.130613896710649</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.79358494751675</v>
+        <v>8.663088225071384</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>11.19066838663699</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.10413387171914</v>
+        <v>27.92239562861614</v>
       </c>
       <c r="C16">
-        <v>21.23337043203645</v>
+        <v>17.76954007962007</v>
       </c>
       <c r="D16">
-        <v>5.207259676691739</v>
+        <v>3.957045194845754</v>
       </c>
       <c r="E16">
-        <v>5.422440248043314</v>
+        <v>6.552473347457627</v>
       </c>
       <c r="F16">
-        <v>49.6893546419868</v>
+        <v>28.40420651688897</v>
       </c>
       <c r="G16">
-        <v>2.0189724053327</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>40.56672482407356</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.847874169549223</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.71264013072867</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.48315350309784</v>
       </c>
       <c r="L16">
-        <v>8.902101824482855</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.92845604874763</v>
+        <v>8.464603637028212</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>11.31765293494639</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.22656908362703</v>
+        <v>27.32440855556446</v>
       </c>
       <c r="C17">
-        <v>20.73372328846743</v>
+        <v>17.43235990454056</v>
       </c>
       <c r="D17">
-        <v>5.212613410322773</v>
+        <v>3.949726037148449</v>
       </c>
       <c r="E17">
-        <v>5.434072518137186</v>
+        <v>6.55341067933566</v>
       </c>
       <c r="F17">
-        <v>48.70923745156132</v>
+        <v>27.94209206558988</v>
       </c>
       <c r="G17">
-        <v>2.025467907605687</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>39.84163641083324</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.742877637058765</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.60821745553797</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.36700853891985</v>
       </c>
       <c r="L17">
-        <v>8.762626759854381</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.01334035328498</v>
+        <v>8.342106331832367</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>11.39597588239849</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.71765392820464</v>
+        <v>26.98989671945161</v>
       </c>
       <c r="C18">
-        <v>20.44382547784324</v>
+        <v>17.22194535242441</v>
       </c>
       <c r="D18">
-        <v>5.216515973951374</v>
+        <v>3.94304699117706</v>
       </c>
       <c r="E18">
-        <v>5.440958618005847</v>
+        <v>6.55698671131089</v>
       </c>
       <c r="F18">
-        <v>48.14622429852744</v>
+        <v>27.70235374964595</v>
       </c>
       <c r="G18">
-        <v>2.029198195026529</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>39.47060336520226</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.680299473385933</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.55881649646889</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.32390851432702</v>
       </c>
       <c r="L18">
-        <v>8.682643976456204</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.06290186604575</v>
+        <v>8.270087789320456</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>11.43984177089505</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.54460969991973</v>
+        <v>26.86415927138537</v>
       </c>
       <c r="C19">
-        <v>20.34522629586761</v>
+        <v>17.16119653055636</v>
       </c>
       <c r="D19">
-        <v>5.217973043776345</v>
+        <v>3.94265786842245</v>
       </c>
       <c r="E19">
-        <v>5.443323081715674</v>
+        <v>6.556075330493871</v>
       </c>
       <c r="F19">
-        <v>47.95570463580564</v>
+        <v>27.60012773194261</v>
       </c>
       <c r="G19">
-        <v>2.030460512231457</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>39.30738948919014</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.660507000523788</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.53430865127429</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.29197276582422</v>
       </c>
       <c r="L19">
-        <v>8.655602665659726</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.07980500713048</v>
+        <v>8.246668030361748</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>11.45576153843631</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.3204135462814</v>
+        <v>27.38979878946119</v>
       </c>
       <c r="C20">
-        <v>20.78716863377745</v>
+        <v>17.46739490437015</v>
       </c>
       <c r="D20">
-        <v>5.211956927649617</v>
+        <v>3.950316814814355</v>
       </c>
       <c r="E20">
-        <v>5.43281385355469</v>
+        <v>6.55350641746469</v>
       </c>
       <c r="F20">
-        <v>48.81349330777959</v>
+        <v>27.99350402103236</v>
       </c>
       <c r="G20">
-        <v>2.024777116846906</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>39.92281691359494</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.753922637325774</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.62008259904053</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.38104648798631</v>
       </c>
       <c r="L20">
-        <v>8.777448905917375</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.00422680629421</v>
+        <v>8.355071499648583</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>11.38751318144126</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.87882047035897</v>
+        <v>29.10422392642213</v>
       </c>
       <c r="C21">
-        <v>22.24302744479363</v>
+        <v>18.45506949857712</v>
       </c>
       <c r="D21">
-        <v>5.202027712530374</v>
+        <v>3.973470097559057</v>
       </c>
       <c r="E21">
-        <v>5.399891455710985</v>
+        <v>6.550236946687146</v>
       </c>
       <c r="F21">
-        <v>51.70573377554135</v>
+        <v>29.32778827981051</v>
       </c>
       <c r="G21">
-        <v>2.005589539775456</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>42.00839033119457</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.062755885214648</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.92316540118726</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.71304682986202</v>
       </c>
       <c r="L21">
-        <v>9.189851322156713</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.75947198586555</v>
+        <v>8.714909434946602</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>11.1590222454533</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40.51880639746093</v>
+        <v>30.19607217262921</v>
       </c>
       <c r="C22">
-        <v>23.17541119807579</v>
+        <v>19.06135021067167</v>
       </c>
       <c r="D22">
-        <v>5.204294054375358</v>
+        <v>3.984788566045165</v>
       </c>
       <c r="E22">
-        <v>5.380280628267252</v>
+        <v>6.554261412909515</v>
       </c>
       <c r="F22">
-        <v>53.60762102973463</v>
+        <v>30.22600883540682</v>
       </c>
       <c r="G22">
-        <v>1.992923357174433</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>43.41458490309662</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.260771841493146</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.13934035738305</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.97065180131995</v>
       </c>
       <c r="L22">
-        <v>9.462046969944327</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.60724876386224</v>
+        <v>8.945769499954395</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.00882763390848</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.64617880989632</v>
+        <v>29.63646222337858</v>
       </c>
       <c r="C23">
-        <v>22.67935243685015</v>
+        <v>18.72187525597186</v>
       </c>
       <c r="D23">
-        <v>5.202207376824752</v>
+        <v>3.975456298769608</v>
       </c>
       <c r="E23">
-        <v>5.390563880565689</v>
+        <v>6.555676612983246</v>
       </c>
       <c r="F23">
-        <v>52.59117563754725</v>
+        <v>29.78197907362619</v>
       </c>
       <c r="G23">
-        <v>1.999699089187566</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>42.72701447886275</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.153800030997977</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.03688523500929</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.86219396353288</v>
       </c>
       <c r="L23">
-        <v>9.316494070015894</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.68772000159944</v>
+        <v>8.821162943325435</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.08679537157386</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.27800019439875</v>
+        <v>27.39158142032935</v>
       </c>
       <c r="C24">
-        <v>20.76301426261228</v>
+        <v>17.42194044656038</v>
       </c>
       <c r="D24">
-        <v>5.212251169860229</v>
+        <v>3.944896642931998</v>
       </c>
       <c r="E24">
-        <v>5.433382279027554</v>
+        <v>6.559396367263687</v>
       </c>
       <c r="F24">
-        <v>48.76635782362363</v>
+        <v>28.02713724612219</v>
       </c>
       <c r="G24">
-        <v>2.025089435233709</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>39.98738052074727</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.745677319735234</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.6362050341657</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.42262889040612</v>
       </c>
       <c r="L24">
-        <v>8.770747185416248</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.00834468430986</v>
+        <v>8.346472907375096</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>11.38844965844992</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.48395851960911</v>
+        <v>24.76231183512877</v>
       </c>
       <c r="C25">
-        <v>18.59853022779621</v>
+        <v>15.9269620618018</v>
       </c>
       <c r="D25">
-        <v>5.253996494145786</v>
+        <v>3.910513633777837</v>
       </c>
       <c r="E25">
-        <v>5.486987106032868</v>
+        <v>6.57257941181806</v>
       </c>
       <c r="F25">
-        <v>44.6676143179417</v>
+        <v>26.10111037658664</v>
       </c>
       <c r="G25">
-        <v>2.052285742551209</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>36.95765941613557</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.293937832546215</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.22326412146303</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.98916091629615</v>
       </c>
       <c r="L25">
-        <v>8.191204899897492</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.38206729038478</v>
+        <v>7.82468380515635</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.72041626021104</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.69961492748371</v>
+        <v>22.08056343451356</v>
       </c>
       <c r="C2">
-        <v>14.6928052768897</v>
+        <v>15.12646974449346</v>
       </c>
       <c r="D2">
-        <v>3.876524736579221</v>
+        <v>3.963612569357922</v>
       </c>
       <c r="E2">
-        <v>6.598819210724304</v>
+        <v>6.393884324948789</v>
       </c>
       <c r="F2">
-        <v>24.75867393134024</v>
+        <v>23.64299742274528</v>
       </c>
       <c r="G2">
-        <v>34.84758559899885</v>
+        <v>32.33198627245854</v>
       </c>
       <c r="I2">
-        <v>2.945420408839371</v>
+        <v>2.946426942226315</v>
       </c>
       <c r="J2">
-        <v>10.97078231802804</v>
+        <v>11.08030447204148</v>
       </c>
       <c r="K2">
-        <v>16.77941819886127</v>
+        <v>15.83662598641038</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.70626824827588</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.912285759572011</v>
       </c>
       <c r="N2">
-        <v>7.429540084764895</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.96827945473024</v>
+        <v>7.49777436609764</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>11.97461010672626</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.15577666323448</v>
+        <v>20.62208450712407</v>
       </c>
       <c r="C3">
-        <v>13.83375671883426</v>
+        <v>14.18436673111433</v>
       </c>
       <c r="D3">
-        <v>3.857289428132025</v>
+        <v>3.910040908782057</v>
       </c>
       <c r="E3">
-        <v>6.615604823349658</v>
+        <v>6.42138824309098</v>
       </c>
       <c r="F3">
-        <v>23.78630946086717</v>
+        <v>22.79058479695418</v>
       </c>
       <c r="G3">
-        <v>33.29410992806871</v>
+        <v>30.98533098103423</v>
       </c>
       <c r="I3">
-        <v>2.702895389459079</v>
+        <v>2.737719910737693</v>
       </c>
       <c r="J3">
-        <v>10.79036485601226</v>
+        <v>10.90694410508009</v>
       </c>
       <c r="K3">
-        <v>16.61288827108771</v>
+        <v>15.75527510486886</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.76739928462989</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.693988389163065</v>
       </c>
       <c r="N3">
-        <v>7.161939416967547</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.14264903116714</v>
+        <v>7.224259448734937</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.1144515967221</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.17776637724522</v>
+        <v>19.66978467846232</v>
       </c>
       <c r="C4">
-        <v>13.2822816907228</v>
+        <v>13.57826156795419</v>
       </c>
       <c r="D4">
-        <v>3.845294209687071</v>
+        <v>3.876780869841352</v>
       </c>
       <c r="E4">
-        <v>6.627785857368329</v>
+        <v>6.4399628267306</v>
       </c>
       <c r="F4">
-        <v>23.18489948959676</v>
+        <v>22.26223460536226</v>
       </c>
       <c r="G4">
-        <v>32.32631927276584</v>
+        <v>30.14968744688277</v>
       </c>
       <c r="I4">
-        <v>2.549856341826932</v>
+        <v>2.60603738654017</v>
       </c>
       <c r="J4">
-        <v>10.68408204619819</v>
+        <v>10.80083591631514</v>
       </c>
       <c r="K4">
-        <v>16.51830525691721</v>
+        <v>15.71067397223895</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.80294413882178</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.586285157862983</v>
       </c>
       <c r="N4">
-        <v>6.997111198111651</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.25196820026579</v>
+        <v>7.055444508525428</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.20318637855859</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.766098927773</v>
+        <v>19.26082848412366</v>
       </c>
       <c r="C5">
-        <v>13.05766692128299</v>
+        <v>13.33058945664297</v>
       </c>
       <c r="D5">
-        <v>3.841097855190516</v>
+        <v>3.864024323194948</v>
       </c>
       <c r="E5">
-        <v>6.632244708006669</v>
+        <v>6.447068516872391</v>
       </c>
       <c r="F5">
-        <v>22.92807164255763</v>
+        <v>22.03528768471815</v>
       </c>
       <c r="G5">
-        <v>31.90893508087978</v>
+        <v>29.7877619536808</v>
       </c>
       <c r="I5">
-        <v>2.48696617982354</v>
+        <v>2.552307074853831</v>
       </c>
       <c r="J5">
-        <v>10.63815260615907</v>
+        <v>10.75411543535822</v>
       </c>
       <c r="K5">
-        <v>16.47350460973485</v>
+        <v>15.68615563841287</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.81055895663529</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.543924104208108</v>
       </c>
       <c r="N5">
-        <v>6.930452989897523</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.29725186975415</v>
+        <v>6.987064424505453</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.24046256575878</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.68876427999026</v>
+        <v>19.18407915922629</v>
       </c>
       <c r="C6">
-        <v>13.02749896215259</v>
+        <v>13.29667424304015</v>
       </c>
       <c r="D6">
-        <v>3.841305942114451</v>
+        <v>3.862988303842524</v>
       </c>
       <c r="E6">
-        <v>6.631831388251694</v>
+        <v>6.44719795128638</v>
       </c>
       <c r="F6">
-        <v>22.87195587287839</v>
+        <v>21.98452341588563</v>
       </c>
       <c r="G6">
-        <v>31.81496933463499</v>
+        <v>29.70359518752569</v>
       </c>
       <c r="I6">
-        <v>2.47733247219005</v>
+        <v>2.544612283528914</v>
       </c>
       <c r="J6">
-        <v>10.62600385164671</v>
+        <v>10.74197827762951</v>
       </c>
       <c r="K6">
-        <v>16.45623159555171</v>
+        <v>15.6728358872348</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.80402804278439</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.530878785357642</v>
       </c>
       <c r="N6">
-        <v>6.920051815069497</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.30500453836802</v>
+        <v>6.976353576883194</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.24718982149358</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.1504485470938</v>
+        <v>19.63365881102743</v>
       </c>
       <c r="C7">
-        <v>13.29932593002476</v>
+        <v>13.58179712226114</v>
       </c>
       <c r="D7">
-        <v>3.847739173142923</v>
+        <v>3.881745581901022</v>
       </c>
       <c r="E7">
-        <v>6.624621210679066</v>
+        <v>6.43874857943947</v>
       </c>
       <c r="F7">
-        <v>23.1452044726692</v>
+        <v>22.20021698346157</v>
       </c>
       <c r="G7">
-        <v>32.25476326153372</v>
+        <v>30.16670974661825</v>
       </c>
       <c r="I7">
-        <v>2.550904133898487</v>
+        <v>2.607446304599986</v>
       </c>
       <c r="J7">
-        <v>10.6709773504838</v>
+        <v>10.73212410516316</v>
       </c>
       <c r="K7">
-        <v>16.49059375054972</v>
+        <v>15.67394978327228</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.77317583194567</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.559999058102466</v>
       </c>
       <c r="N7">
-        <v>6.998005572369722</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.25319531287679</v>
+        <v>7.055230597951899</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.20586364863765</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.15277840776615</v>
+        <v>21.53466227692595</v>
       </c>
       <c r="C8">
-        <v>14.42638839773705</v>
+        <v>14.79066461931166</v>
       </c>
       <c r="D8">
-        <v>3.873347165641235</v>
+        <v>3.956598672190709</v>
       </c>
       <c r="E8">
-        <v>6.599961606196063</v>
+        <v>6.404624280731593</v>
       </c>
       <c r="F8">
-        <v>24.37868147583991</v>
+        <v>23.23016944292492</v>
       </c>
       <c r="G8">
-        <v>34.23232682833597</v>
+        <v>32.06193069759176</v>
       </c>
       <c r="I8">
-        <v>2.864203457514072</v>
+        <v>2.875515245474397</v>
       </c>
       <c r="J8">
-        <v>10.8914270648271</v>
+        <v>10.82270349552138</v>
       </c>
       <c r="K8">
-        <v>16.68489256814031</v>
+        <v>15.73823108602979</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.67384579427656</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.779126398009858</v>
       </c>
       <c r="N8">
-        <v>7.339685144902806</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.02911755619698</v>
+        <v>7.402551378152576</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.02754925318173</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.70807857023609</v>
+        <v>24.88400837808619</v>
       </c>
       <c r="C9">
-        <v>16.41299159030147</v>
+        <v>16.95795802059444</v>
       </c>
       <c r="D9">
-        <v>3.917419499133531</v>
+        <v>4.086774902921357</v>
       </c>
       <c r="E9">
-        <v>6.572702866884971</v>
+        <v>6.350741119963827</v>
       </c>
       <c r="F9">
-        <v>26.81102162698611</v>
+        <v>25.34784932551759</v>
       </c>
       <c r="G9">
-        <v>38.08984525755135</v>
+        <v>35.47863599119363</v>
       </c>
       <c r="I9">
-        <v>3.445764593410377</v>
+        <v>3.37399691580865</v>
       </c>
       <c r="J9">
-        <v>11.38096316295056</v>
+        <v>11.22763134022962</v>
       </c>
       <c r="K9">
-        <v>17.1768818455328</v>
+        <v>15.99441982127335</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.530841628582</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.4725061442487</v>
       </c>
       <c r="N9">
-        <v>7.998804684249475</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.60526570266615</v>
+        <v>8.073524879610119</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.69483633620567</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.03523406815532</v>
+        <v>27.02776133787207</v>
       </c>
       <c r="C10">
-        <v>17.76479954606302</v>
+        <v>18.36343169381557</v>
       </c>
       <c r="D10">
-        <v>3.950258318175642</v>
+        <v>4.195272913852203</v>
       </c>
       <c r="E10">
-        <v>6.561155854209871</v>
+        <v>6.328685933462795</v>
       </c>
       <c r="F10">
-        <v>28.53943897109186</v>
+        <v>26.73126279054893</v>
       </c>
       <c r="G10">
-        <v>40.79607173697288</v>
+        <v>38.30304485275531</v>
       </c>
       <c r="I10">
-        <v>3.856372393355068</v>
+        <v>3.722395094676787</v>
       </c>
       <c r="J10">
-        <v>11.75606680984675</v>
+        <v>11.22077393047368</v>
       </c>
       <c r="K10">
-        <v>17.56687474662059</v>
+        <v>16.14126930475359</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.36664079285044</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.02794575033457</v>
       </c>
       <c r="N10">
-        <v>8.474578170330419</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.3043356618097</v>
+        <v>8.55034429404254</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.47358985417121</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.00960330465567</v>
+        <v>27.85137361001727</v>
       </c>
       <c r="C11">
-        <v>18.37935047894483</v>
+        <v>18.89550034638473</v>
       </c>
       <c r="D11">
-        <v>3.969596351101246</v>
+        <v>4.273964634046927</v>
       </c>
       <c r="E11">
-        <v>6.553036946572748</v>
+        <v>6.334339835948661</v>
       </c>
       <c r="F11">
-        <v>29.26690820884408</v>
+        <v>27.10484565741548</v>
       </c>
       <c r="G11">
-        <v>41.91880612057838</v>
+        <v>40.19124547949247</v>
       </c>
       <c r="I11">
-        <v>4.041535524531417</v>
+        <v>3.87503943159791</v>
       </c>
       <c r="J11">
-        <v>11.91291017931403</v>
+        <v>10.68916376026178</v>
       </c>
       <c r="K11">
-        <v>17.71260426983428</v>
+        <v>16.07071666206654</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.19264094923812</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.17860098241336</v>
       </c>
       <c r="N11">
-        <v>8.690543644533946</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.17227273413311</v>
+        <v>8.756842017345624</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.39589096602867</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.38453298838046</v>
+        <v>28.1611242898102</v>
       </c>
       <c r="C12">
-        <v>18.59505064884818</v>
+        <v>19.06783074029364</v>
       </c>
       <c r="D12">
-        <v>3.974477485952415</v>
+        <v>4.304075066928378</v>
       </c>
       <c r="E12">
-        <v>6.55308772123239</v>
+        <v>6.341933749281385</v>
       </c>
       <c r="F12">
-        <v>29.56665011119204</v>
+        <v>27.24646655680045</v>
       </c>
       <c r="G12">
-        <v>42.38655061980992</v>
+        <v>41.02985207508709</v>
       </c>
       <c r="I12">
-        <v>4.110303038372071</v>
+        <v>3.929912515294185</v>
       </c>
       <c r="J12">
-        <v>11.98288706549123</v>
+        <v>10.43833100576051</v>
       </c>
       <c r="K12">
-        <v>17.79145214479957</v>
+        <v>16.0523646285061</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.13234418012905</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.24393559770219</v>
       </c>
       <c r="N12">
-        <v>8.770636449134177</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.12112090738786</v>
+        <v>8.832166032593316</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.36682615227722</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.30693912895836</v>
+        <v>28.09781434333989</v>
       </c>
       <c r="C13">
-        <v>18.5461128000872</v>
+        <v>19.0287517486235</v>
       </c>
       <c r="D13">
-        <v>3.97293688432367</v>
+        <v>4.296834229775196</v>
       </c>
       <c r="E13">
-        <v>6.553618468582374</v>
+        <v>6.340668687870544</v>
       </c>
       <c r="F13">
-        <v>29.50728701790105</v>
+        <v>27.22201576519722</v>
       </c>
       <c r="G13">
-        <v>42.295038789458</v>
+        <v>40.85458813007298</v>
       </c>
       <c r="I13">
-        <v>4.095288035076966</v>
+        <v>3.917703629678981</v>
       </c>
       <c r="J13">
-        <v>11.96975834752552</v>
+        <v>10.49659829301338</v>
       </c>
       <c r="K13">
-        <v>17.77883406649429</v>
+        <v>16.06095486374493</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.14848030120912</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.23367953489277</v>
       </c>
       <c r="N13">
-        <v>8.75316320051941</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.13182137303074</v>
+        <v>8.815781155288551</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.37240453390006</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.04180759078928</v>
+        <v>27.87832915075871</v>
       </c>
       <c r="C14">
-        <v>18.3960370359793</v>
+        <v>18.90885230709792</v>
       </c>
       <c r="D14">
-        <v>3.96979034158258</v>
+        <v>4.27611942199866</v>
       </c>
       <c r="E14">
-        <v>6.553270865196276</v>
+        <v>6.335118364008112</v>
       </c>
       <c r="F14">
-        <v>29.29378955620186</v>
+        <v>27.1191093251989</v>
       </c>
       <c r="G14">
-        <v>41.96123795081459</v>
+        <v>40.26244481986526</v>
       </c>
       <c r="I14">
-        <v>4.04709939230125</v>
+        <v>3.879380640389976</v>
       </c>
       <c r="J14">
-        <v>11.91949452504102</v>
+        <v>10.67041482995863</v>
       </c>
       <c r="K14">
-        <v>17.72094806522665</v>
+        <v>16.07119676858943</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.18903763322564</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.18560995033648</v>
       </c>
       <c r="N14">
-        <v>8.697037513032093</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.16793170072325</v>
+        <v>8.762971001380137</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.39321273376724</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.87275810591652</v>
+        <v>27.73642856630683</v>
       </c>
       <c r="C15">
-        <v>18.30892897917083</v>
+        <v>18.83870264474585</v>
       </c>
       <c r="D15">
-        <v>3.968823491953685</v>
+        <v>4.26503894992124</v>
       </c>
       <c r="E15">
-        <v>6.552006272217661</v>
+        <v>6.331120910038704</v>
       </c>
       <c r="F15">
-        <v>29.15258958004296</v>
+        <v>27.04296934722314</v>
       </c>
       <c r="G15">
-        <v>41.73820471859003</v>
+        <v>39.89231927340207</v>
       </c>
       <c r="I15">
-        <v>4.018060877183402</v>
+        <v>3.856744218352744</v>
       </c>
       <c r="J15">
-        <v>11.8848823789389</v>
+        <v>10.76590799967996</v>
       </c>
       <c r="K15">
-        <v>17.67691565030429</v>
+        <v>16.06775975046171</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.20722671267712</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.14824341879151</v>
       </c>
       <c r="N15">
-        <v>8.663088225071384</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.19066838663699</v>
+        <v>8.730879583054524</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.40737574862285</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.92239562861614</v>
+        <v>26.92522045777592</v>
       </c>
       <c r="C16">
-        <v>17.76954007962007</v>
+        <v>18.37220975000472</v>
       </c>
       <c r="D16">
-        <v>3.957045194845754</v>
+        <v>4.200241312945451</v>
       </c>
       <c r="E16">
-        <v>6.552473347457627</v>
+        <v>6.320358184538412</v>
       </c>
       <c r="F16">
-        <v>28.40420651688897</v>
+        <v>26.61887641316363</v>
       </c>
       <c r="G16">
-        <v>40.56672482407356</v>
+        <v>38.03908378328286</v>
       </c>
       <c r="I16">
-        <v>3.847874169549223</v>
+        <v>3.719317595858625</v>
       </c>
       <c r="J16">
-        <v>11.71264013072867</v>
+        <v>11.21706517908346</v>
       </c>
       <c r="K16">
-        <v>17.48315350309784</v>
+        <v>16.07527848744458</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.32912709767228</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.95970525840419</v>
       </c>
       <c r="N16">
-        <v>8.464603637028212</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.31765293494639</v>
+        <v>8.540706140844614</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.48716292698856</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.32440855556446</v>
+        <v>26.39885960936881</v>
       </c>
       <c r="C17">
-        <v>17.43235990454056</v>
+        <v>18.05789678349692</v>
       </c>
       <c r="D17">
-        <v>3.949726037148449</v>
+        <v>4.165716646710236</v>
       </c>
       <c r="E17">
-        <v>6.55341067933566</v>
+        <v>6.318522576396762</v>
       </c>
       <c r="F17">
-        <v>27.94209206558988</v>
+        <v>26.31459090978957</v>
       </c>
       <c r="G17">
-        <v>39.84163641083324</v>
+        <v>37.04212178309625</v>
       </c>
       <c r="I17">
-        <v>3.742877637058765</v>
+        <v>3.633259184005608</v>
       </c>
       <c r="J17">
-        <v>11.60821745553797</v>
+        <v>11.38755258361462</v>
       </c>
       <c r="K17">
-        <v>17.36700853891985</v>
+        <v>16.05912978164707</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.38864944368901</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.82960139350322</v>
       </c>
       <c r="N17">
-        <v>8.342106331832367</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.39597588239849</v>
+        <v>8.421190340272634</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.5404152846673</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.98989671945161</v>
+        <v>26.09999818652441</v>
       </c>
       <c r="C18">
-        <v>17.22194535242441</v>
+        <v>17.85236997524028</v>
       </c>
       <c r="D18">
-        <v>3.94304699117706</v>
+        <v>4.144769045590667</v>
       </c>
       <c r="E18">
-        <v>6.55698671131089</v>
+        <v>6.321580369805492</v>
       </c>
       <c r="F18">
-        <v>27.70235374964595</v>
+        <v>26.14974121189022</v>
       </c>
       <c r="G18">
-        <v>39.47060336520226</v>
+        <v>36.5671458977728</v>
       </c>
       <c r="I18">
-        <v>3.680299473385933</v>
+        <v>3.579921800212506</v>
       </c>
       <c r="J18">
-        <v>11.55881649646889</v>
+        <v>11.45592403123005</v>
       </c>
       <c r="K18">
-        <v>17.32390851432702</v>
+        <v>16.06358325296328</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.43212851892744</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.7672470164917</v>
       </c>
       <c r="N18">
-        <v>8.270087789320456</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.43984177089505</v>
+        <v>8.350162466898151</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.57014855269111</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.86415927138537</v>
+        <v>25.98581566920259</v>
       </c>
       <c r="C19">
-        <v>17.16119653055636</v>
+        <v>17.79198170017271</v>
       </c>
       <c r="D19">
-        <v>3.94265786842245</v>
+        <v>4.140198724179654</v>
       </c>
       <c r="E19">
-        <v>6.556075330493871</v>
+        <v>6.32094442813519</v>
       </c>
       <c r="F19">
-        <v>27.60012773194261</v>
+        <v>26.0710049999436</v>
       </c>
       <c r="G19">
-        <v>39.30738948919014</v>
+        <v>36.37884783614438</v>
       </c>
       <c r="I19">
-        <v>3.660507000523788</v>
+        <v>3.564093905775779</v>
       </c>
       <c r="J19">
-        <v>11.53430865127429</v>
+        <v>11.46512282008659</v>
       </c>
       <c r="K19">
-        <v>17.29197276582422</v>
+        <v>16.04759443278657</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.43448493309047</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.73190187188038</v>
       </c>
       <c r="N19">
-        <v>8.246668030361748</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.45576153843631</v>
+        <v>8.326921646309444</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.58223357587883</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.38979878946119</v>
+        <v>26.45711396686498</v>
       </c>
       <c r="C20">
-        <v>17.46739490437015</v>
+        <v>18.09132671137753</v>
       </c>
       <c r="D20">
-        <v>3.950316814814355</v>
+        <v>4.168975290430125</v>
       </c>
       <c r="E20">
-        <v>6.55350641746469</v>
+        <v>6.318745788849278</v>
       </c>
       <c r="F20">
-        <v>27.99350402103236</v>
+        <v>26.35068581358483</v>
       </c>
       <c r="G20">
-        <v>39.92281691359494</v>
+        <v>37.14659369814882</v>
       </c>
       <c r="I20">
-        <v>3.753922637325774</v>
+        <v>3.642238222783874</v>
       </c>
       <c r="J20">
-        <v>11.62008259904053</v>
+        <v>11.37419015480795</v>
       </c>
       <c r="K20">
-        <v>17.38104648798631</v>
+        <v>16.06326502300234</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.38404185448057</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.8453348713763</v>
       </c>
       <c r="N20">
-        <v>8.355071499648583</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.38751318144126</v>
+        <v>8.433920021715055</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.53440956516797</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.10422392642213</v>
+        <v>27.90282301468763</v>
       </c>
       <c r="C21">
-        <v>18.45506949857712</v>
+        <v>18.9223739172698</v>
       </c>
       <c r="D21">
-        <v>3.973470097559057</v>
+        <v>4.294172876235399</v>
       </c>
       <c r="E21">
-        <v>6.550236946687146</v>
+        <v>6.34037694741987</v>
       </c>
       <c r="F21">
-        <v>29.32778827981051</v>
+        <v>27.05053365566918</v>
       </c>
       <c r="G21">
-        <v>42.00839033119457</v>
+        <v>40.63820537797275</v>
       </c>
       <c r="I21">
-        <v>4.062755885214648</v>
+        <v>3.891171502589022</v>
       </c>
       <c r="J21">
-        <v>11.92316540118726</v>
+        <v>10.43238062772696</v>
       </c>
       <c r="K21">
-        <v>17.71304682986202</v>
+        <v>16.00764998350071</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.13600654213567</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.14913883618825</v>
       </c>
       <c r="N21">
-        <v>8.714909434946602</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.1590222454533</v>
+        <v>8.776530168952219</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.39517891994881</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.19607217262921</v>
+        <v>28.81569690708733</v>
       </c>
       <c r="C22">
-        <v>19.06135021067167</v>
+        <v>19.41768187790058</v>
       </c>
       <c r="D22">
-        <v>3.984788566045165</v>
+        <v>4.376063195106559</v>
       </c>
       <c r="E22">
-        <v>6.554261412909515</v>
+        <v>6.364922990290616</v>
       </c>
       <c r="F22">
-        <v>30.22600883540682</v>
+        <v>27.51604409513691</v>
       </c>
       <c r="G22">
-        <v>43.41458490309662</v>
+        <v>43.02051254447672</v>
       </c>
       <c r="I22">
-        <v>4.260771841493146</v>
+        <v>4.048762117815595</v>
       </c>
       <c r="J22">
-        <v>12.13934035738305</v>
+        <v>9.787475981992868</v>
       </c>
       <c r="K22">
-        <v>17.97065180131995</v>
+        <v>15.99214524678924</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.98610753776334</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.37330475704433</v>
       </c>
       <c r="N22">
-        <v>8.945769499954395</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.00882763390848</v>
+        <v>8.994582255214473</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.30817072199506</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.63646222337858</v>
+        <v>28.3684744479972</v>
       </c>
       <c r="C23">
-        <v>18.72187525597186</v>
+        <v>19.16336017795016</v>
       </c>
       <c r="D23">
-        <v>3.975456298769608</v>
+        <v>4.321760502292781</v>
       </c>
       <c r="E23">
-        <v>6.555676612983246</v>
+        <v>6.349980061460688</v>
       </c>
       <c r="F23">
-        <v>29.78197907362619</v>
+        <v>27.35247009615353</v>
       </c>
       <c r="G23">
-        <v>42.72701447886275</v>
+        <v>41.63143860700209</v>
       </c>
       <c r="I23">
-        <v>4.153800030997977</v>
+        <v>3.963397406494501</v>
       </c>
       <c r="J23">
-        <v>12.03688523500929</v>
+        <v>10.26798887058149</v>
       </c>
       <c r="K23">
-        <v>17.86219396353288</v>
+        <v>16.05492899871701</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.10307069708258</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.29853140966291</v>
       </c>
       <c r="N23">
-        <v>8.821162943325435</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.08679537157386</v>
+        <v>8.879299301338754</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.34643474953458</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.39158142032935</v>
+        <v>26.46115673756691</v>
       </c>
       <c r="C24">
-        <v>17.42194044656038</v>
+        <v>18.04634879603524</v>
       </c>
       <c r="D24">
-        <v>3.944896642931998</v>
+        <v>4.161364103751197</v>
       </c>
       <c r="E24">
-        <v>6.559396367263687</v>
+        <v>6.323959504510972</v>
       </c>
       <c r="F24">
-        <v>28.02713724612219</v>
+        <v>26.38938966592628</v>
       </c>
       <c r="G24">
-        <v>39.98738052074727</v>
+        <v>37.19793500660634</v>
       </c>
       <c r="I24">
-        <v>3.745677319735234</v>
+        <v>3.632569582544323</v>
       </c>
       <c r="J24">
-        <v>11.6362050341657</v>
+        <v>11.40009885686643</v>
       </c>
       <c r="K24">
-        <v>17.42262889040612</v>
+        <v>16.10590217876429</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.41720944850714</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.87503225581636</v>
       </c>
       <c r="N24">
-        <v>8.346472907375096</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.38844965844992</v>
+        <v>8.425505497451516</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.5321218032187</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.76231183512877</v>
+        <v>24.00449510619886</v>
       </c>
       <c r="C25">
-        <v>15.9269620618018</v>
+        <v>16.44297918846998</v>
       </c>
       <c r="D25">
-        <v>3.910513633777837</v>
+        <v>4.054550142523726</v>
       </c>
       <c r="E25">
-        <v>6.57257941181806</v>
+        <v>6.356214349049692</v>
       </c>
       <c r="F25">
-        <v>26.10111037658664</v>
+        <v>24.75531865094234</v>
       </c>
       <c r="G25">
-        <v>36.95765941613557</v>
+        <v>34.35406019865909</v>
       </c>
       <c r="I25">
-        <v>3.293937832546215</v>
+        <v>3.247248294340359</v>
       </c>
       <c r="J25">
-        <v>11.22326412146303</v>
+        <v>11.173883103046</v>
       </c>
       <c r="K25">
-        <v>16.98916091629615</v>
+        <v>15.89089280409359</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.550027108383</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.24152714154693</v>
       </c>
       <c r="N25">
-        <v>7.82468380515635</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.72041626021104</v>
+        <v>7.897864910153158</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.78497071700756</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
